--- a/ED/Guía 5.xlsx
+++ b/ED/Guía 5.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matia\OneDrive\Escritorio\FICH\ED\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB47FB4-F938-43C5-91BC-DF8DC18FF3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Ej 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Ej 2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Ej 4" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Ej 5" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Ej 6" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Ej 7" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Ej 8" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Ej 9" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Ej 13" sheetId="9" r:id="rId12"/>
+    <sheet name="Ej 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ej 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ej 3" sheetId="10" r:id="rId3"/>
+    <sheet name="Ej 4" sheetId="3" r:id="rId4"/>
+    <sheet name="Ej 5" sheetId="4" r:id="rId5"/>
+    <sheet name="Ej 6" sheetId="5" r:id="rId6"/>
+    <sheet name="Ej 7" sheetId="6" r:id="rId7"/>
+    <sheet name="Ej 8" sheetId="7" r:id="rId8"/>
+    <sheet name="Ej 9" sheetId="8" r:id="rId9"/>
+    <sheet name="Ej 13" sheetId="9" r:id="rId10"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="90">
   <si>
     <t>Flip-Flop JK</t>
   </si>
@@ -259,37 +269,83 @@
   </si>
   <si>
     <t xml:space="preserve">   read_data &lt;= memory[address];</t>
+  </si>
+  <si>
+    <t>FlipFlop T</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>~q</t>
+  </si>
+  <si>
+    <t>module T (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   input clk, T,</t>
+  </si>
+  <si>
+    <t>   endcase</t>
+  </si>
+  <si>
+    <t>      1'b1 : q=~q;</t>
+  </si>
+  <si>
+    <t>case(T)</t>
+  </si>
+  <si>
+    <t>      1'b0 : q=q;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -303,9 +359,21 @@
         <bgColor rgb="FFB6D7A8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -319,76 +387,69 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -578,31 +639,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="12.63"/>
-    <col customWidth="1" min="6" max="6" width="34.88"/>
-    <col customWidth="1" min="7" max="7" width="3.88"/>
-    <col customWidth="1" min="8" max="8" width="38.0"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="8" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -619,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -636,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -653,7 +719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -670,7 +736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -687,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
@@ -695,12 +761,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
@@ -708,7 +774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
@@ -716,7 +782,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
@@ -724,7 +790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
@@ -732,7 +798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
@@ -740,7 +806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F16" s="1" t="s">
         <v>16</v>
       </c>
@@ -748,7 +814,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
         <v>27</v>
       </c>
@@ -756,7 +822,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F18" s="1" t="s">
         <v>20</v>
       </c>
@@ -764,7 +830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F19" s="1" t="s">
         <v>30</v>
       </c>
@@ -772,41 +838,149 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F21" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:D7" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="F2:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="63.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="33.0"/>
-    <col customWidth="1" min="8" max="8" width="37.63"/>
+    <col min="6" max="6" width="33" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -821,7 +995,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -832,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -846,7 +1020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -860,393 +1034,355 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:D6" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EF0CFB-73C6-4009-94F9-8467F3087F8E}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F5:F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="50.5"/>
+    <col min="6" max="6" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19">
-      <c r="F19" s="1" t="s">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="51.25"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
-      <c r="F9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="F11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F14" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F15" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F16" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="F20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:D6" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="50.88"/>
+    <col min="6" max="6" width="51.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="F2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>8</v>
@@ -1255,113 +1391,115 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14">
-      <c r="E14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="1" t="s">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17">
-      <c r="F17" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="F19" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="F22" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:D7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="50.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -1372,7 +1510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1382,8 +1520,11 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1393,8 +1534,11 @@
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1404,28 +1548,123 @@
       <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="1" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:D11" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -1436,7 +1675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1470,26 +1709,32 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:D6" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
@@ -1500,7 +1745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
@@ -1511,7 +1756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1522,7 +1767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1534,104 +1779,79 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:D6" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="6" max="6" width="63.25"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
-      <c r="F2" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="F3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="F4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="F5" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="F6" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="F7" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="F8" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="F12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="F19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" s="1" t="s">
-        <v>31</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:D6" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>